--- a/ddf--list--geo--world_4region.xlsx
+++ b/ddf--list--geo--world_4region.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ola\Documents\GitHub\ddf--gapminder--geo_countries_and_groups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ola\Documents\GitHub\ddf--gapminder--dim_geo_countries_and_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,19 +107,19 @@
     <t>description</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lng</t>
-  </si>
-  <si>
     <t>is.world_4region</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -935,7 +935,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -953,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -968,10 +968,10 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
         <v>22</v>
